--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Adm-Ramp2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Adm-Ramp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Adm</t>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
         <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.81352933333334</v>
+        <v>7.312510333333333</v>
       </c>
       <c r="H2">
-        <v>38.44058800000001</v>
+        <v>21.937531</v>
       </c>
       <c r="I2">
-        <v>0.3471629989654041</v>
+        <v>0.2480018119509629</v>
       </c>
       <c r="J2">
-        <v>0.3561136181091343</v>
+        <v>0.251002285750873</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>66.76259466666666</v>
+        <v>58.57936466666666</v>
       </c>
       <c r="N2">
-        <v>200.287784</v>
+        <v>175.738094</v>
       </c>
       <c r="O2">
-        <v>0.7017136742427041</v>
+        <v>0.7014828213988979</v>
       </c>
       <c r="P2">
-        <v>0.7182986969711617</v>
+        <v>0.710174541450451</v>
       </c>
       <c r="Q2">
-        <v>855.4644651307769</v>
+        <v>428.3622094451015</v>
       </c>
       <c r="R2">
-        <v>7699.180186176993</v>
+        <v>3855.259885005914</v>
       </c>
       <c r="S2">
-        <v>0.2436090235651298</v>
+        <v>0.1739690107594004</v>
       </c>
       <c r="T2">
-        <v>0.2557959478614771</v>
+        <v>0.1782554331861413</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
         <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.81352933333334</v>
+        <v>7.312510333333333</v>
       </c>
       <c r="H3">
-        <v>38.44058800000001</v>
+        <v>21.937531</v>
       </c>
       <c r="I3">
-        <v>0.3471629989654041</v>
+        <v>0.2480018119509629</v>
       </c>
       <c r="J3">
-        <v>0.3561136181091343</v>
+        <v>0.251002285750873</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>21.72599366666667</v>
+        <v>21.72599366666666</v>
       </c>
       <c r="N3">
-        <v>65.177981</v>
+        <v>65.17798099999999</v>
       </c>
       <c r="O3">
-        <v>0.2283528211946824</v>
+        <v>0.2601668936102366</v>
       </c>
       <c r="P3">
-        <v>0.2337499466443302</v>
+        <v>0.2633904904496188</v>
       </c>
       <c r="Q3">
-        <v>278.3866571436476</v>
+        <v>158.8715531894345</v>
       </c>
       <c r="R3">
-        <v>2505.479914292829</v>
+        <v>1429.843978704911</v>
       </c>
       <c r="S3">
-        <v>0.07927565022815664</v>
+        <v>0.06452186102499208</v>
       </c>
       <c r="T3">
-        <v>0.08324153923232955</v>
+        <v>0.06611161514789779</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.81352933333334</v>
+        <v>7.312510333333333</v>
       </c>
       <c r="H4">
-        <v>38.44058800000001</v>
+        <v>21.937531</v>
       </c>
       <c r="I4">
-        <v>0.3471629989654041</v>
+        <v>0.2480018119509629</v>
       </c>
       <c r="J4">
-        <v>0.3561136181091343</v>
+        <v>0.251002285750873</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,28 +679,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.06332366666666667</v>
+        <v>0.1364296666666667</v>
       </c>
       <c r="N4">
-        <v>0.189971</v>
+        <v>0.409289</v>
       </c>
       <c r="O4">
-        <v>0.0006655685421611174</v>
+        <v>0.00163373344931995</v>
       </c>
       <c r="P4">
-        <v>0.000681299273660687</v>
+        <v>0.00165397621699319</v>
       </c>
       <c r="Q4">
-        <v>0.8113996603275556</v>
+        <v>0.9976433472732222</v>
       </c>
       <c r="R4">
-        <v>7.302596942948001</v>
+        <v>8.978790125459</v>
       </c>
       <c r="S4">
-        <v>0.0002310607711136855</v>
+        <v>0.0004051688556762442</v>
       </c>
       <c r="T4">
-        <v>0.0002426199493584325</v>
+        <v>0.0004151518110428726</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +708,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
         <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -726,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.81352933333334</v>
+        <v>7.312510333333333</v>
       </c>
       <c r="H5">
-        <v>38.44058800000001</v>
+        <v>21.937531</v>
       </c>
       <c r="I5">
-        <v>0.3471629989654041</v>
+        <v>0.2480018119509629</v>
       </c>
       <c r="J5">
-        <v>0.3561136181091343</v>
+        <v>0.251002285750873</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.590305000000001</v>
+        <v>3.0661225</v>
       </c>
       <c r="N5">
-        <v>13.18061</v>
+        <v>6.132245</v>
       </c>
       <c r="O5">
-        <v>0.06926793602045243</v>
+        <v>0.03671655154154527</v>
       </c>
       <c r="P5">
-        <v>0.04727005711084738</v>
+        <v>0.02478099188293701</v>
       </c>
       <c r="Q5">
-        <v>84.44506643311335</v>
+        <v>22.42105246451583</v>
       </c>
       <c r="R5">
-        <v>506.6703985986802</v>
+        <v>134.526314787095</v>
       </c>
       <c r="S5">
-        <v>0.02404726440100401</v>
+        <v>0.009105771310894148</v>
       </c>
       <c r="T5">
-        <v>0.01683351106596927</v>
+        <v>0.006220085605791019</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
         <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -794,10 +791,10 @@
         <v>62.438235</v>
       </c>
       <c r="I6">
-        <v>0.563889525121381</v>
+        <v>0.7058586226052527</v>
       </c>
       <c r="J6">
-        <v>0.5784278267074994</v>
+        <v>0.7143985211120685</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>66.76259466666666</v>
+        <v>58.57936466666666</v>
       </c>
       <c r="N6">
-        <v>200.287784</v>
+        <v>175.738094</v>
       </c>
       <c r="O6">
-        <v>0.7017136742427041</v>
+        <v>0.7014828213988979</v>
       </c>
       <c r="P6">
-        <v>0.7182986969711617</v>
+        <v>0.710174541450451</v>
       </c>
       <c r="Q6">
-        <v>1389.512858335693</v>
+        <v>1219.197379069343</v>
       </c>
       <c r="R6">
-        <v>12505.61572502124</v>
+        <v>10972.77641162409</v>
       </c>
       <c r="S6">
-        <v>0.3956889905398979</v>
+        <v>0.4951476980938725</v>
       </c>
       <c r="T6">
-        <v>0.4154839542158577</v>
+        <v>0.5073476421436436</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
         <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -856,10 +853,10 @@
         <v>62.438235</v>
       </c>
       <c r="I7">
-        <v>0.563889525121381</v>
+        <v>0.7058586226052527</v>
       </c>
       <c r="J7">
-        <v>0.5784278267074994</v>
+        <v>0.7143985211120685</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.72599366666667</v>
+        <v>21.72599366666666</v>
       </c>
       <c r="N7">
-        <v>65.177981</v>
+        <v>65.17798099999999</v>
       </c>
       <c r="O7">
-        <v>0.2283528211946824</v>
+        <v>0.2601668936102366</v>
       </c>
       <c r="P7">
-        <v>0.2337499466443302</v>
+        <v>0.2633904904496188</v>
       </c>
       <c r="Q7">
         <v>452.1775660559483</v>
       </c>
       <c r="R7">
-        <v>4069.598094503535</v>
+        <v>4069.598094503534</v>
       </c>
       <c r="S7">
-        <v>0.1287657639035971</v>
+        <v>0.183641045171209</v>
       </c>
       <c r="T7">
-        <v>0.1352074736304739</v>
+        <v>0.18816577685219</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
         <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -918,10 +915,10 @@
         <v>62.438235</v>
       </c>
       <c r="I8">
-        <v>0.563889525121381</v>
+        <v>0.7058586226052527</v>
       </c>
       <c r="J8">
-        <v>0.5784278267074994</v>
+        <v>0.7143985211120685</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -930,28 +927,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.06332366666666667</v>
+        <v>0.1364296666666667</v>
       </c>
       <c r="N8">
-        <v>0.189971</v>
+        <v>0.409289</v>
       </c>
       <c r="O8">
-        <v>0.0006655685421611174</v>
+        <v>0.00163373344931995</v>
       </c>
       <c r="P8">
-        <v>0.000681299273660687</v>
+        <v>0.00165397621699319</v>
       </c>
       <c r="Q8">
-        <v>1.317939326798333</v>
+        <v>2.839475862768333</v>
       </c>
       <c r="R8">
-        <v>11.861453941185</v>
+        <v>25.555282764915</v>
       </c>
       <c r="S8">
-        <v>0.0003753071291749624</v>
+        <v>0.001153184842241108</v>
       </c>
       <c r="T8">
-        <v>0.0003940824582009491</v>
+        <v>0.001181598163374469</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +956,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
@@ -980,10 +977,10 @@
         <v>62.438235</v>
       </c>
       <c r="I9">
-        <v>0.563889525121381</v>
+        <v>0.7058586226052527</v>
       </c>
       <c r="J9">
-        <v>0.5784278267074994</v>
+        <v>0.7143985211120685</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.590305000000001</v>
+        <v>3.0661225</v>
       </c>
       <c r="N9">
-        <v>13.18061</v>
+        <v>6.132245</v>
       </c>
       <c r="O9">
-        <v>0.06926793602045243</v>
+        <v>0.03671655154154527</v>
       </c>
       <c r="P9">
-        <v>0.04727005711084738</v>
+        <v>0.02478099188293701</v>
       </c>
       <c r="Q9">
-        <v>137.162337437225</v>
+        <v>63.8144257312625</v>
       </c>
       <c r="R9">
-        <v>822.97402462335</v>
+        <v>382.886554387575</v>
       </c>
       <c r="S9">
-        <v>0.03905946354871113</v>
+        <v>0.02591669449792991</v>
       </c>
       <c r="T9">
-        <v>0.02734231640296683</v>
+        <v>0.01770350395286037</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,31 +1018,31 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.4470076666666666</v>
+        <v>0.303044</v>
       </c>
       <c r="H10">
-        <v>1.341023</v>
+        <v>0.9091320000000001</v>
       </c>
       <c r="I10">
-        <v>0.01211098972683725</v>
+        <v>0.0102776553707253</v>
       </c>
       <c r="J10">
-        <v>0.01242323745145536</v>
+        <v>0.01040200057377754</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>66.76259466666666</v>
+        <v>58.57936466666666</v>
       </c>
       <c r="N10">
-        <v>200.287784</v>
+        <v>175.738094</v>
       </c>
       <c r="O10">
-        <v>0.7017136742427041</v>
+        <v>0.7014828213988979</v>
       </c>
       <c r="P10">
-        <v>0.7182986969711617</v>
+        <v>0.710174541450451</v>
       </c>
       <c r="Q10">
-        <v>29.84339166255911</v>
+        <v>17.75212498604533</v>
       </c>
       <c r="R10">
-        <v>268.590524963032</v>
+        <v>159.769124874408</v>
       </c>
       <c r="S10">
-        <v>0.008498447099934607</v>
+        <v>0.007209598686821923</v>
       </c>
       <c r="T10">
-        <v>0.008923595273543722</v>
+        <v>0.007387235987649794</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,31 +1080,31 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
         <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.4470076666666666</v>
+        <v>0.303044</v>
       </c>
       <c r="H11">
-        <v>1.341023</v>
+        <v>0.9091320000000001</v>
       </c>
       <c r="I11">
-        <v>0.01211098972683725</v>
+        <v>0.0102776553707253</v>
       </c>
       <c r="J11">
-        <v>0.01242323745145536</v>
+        <v>0.01040200057377754</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.72599366666667</v>
+        <v>21.72599366666666</v>
       </c>
       <c r="N11">
-        <v>65.177981</v>
+        <v>65.17798099999999</v>
       </c>
       <c r="O11">
-        <v>0.2283528211946824</v>
+        <v>0.2601668936102366</v>
       </c>
       <c r="P11">
-        <v>0.2337499466443302</v>
+        <v>0.2633904904496188</v>
       </c>
       <c r="Q11">
-        <v>9.711685734951445</v>
+        <v>6.583932024721333</v>
       </c>
       <c r="R11">
-        <v>87.40517161456299</v>
+        <v>59.25538822249199</v>
       </c>
       <c r="S11">
-        <v>0.002765578671583101</v>
+        <v>0.002673905671398168</v>
       </c>
       <c r="T11">
-        <v>0.002903931091427536</v>
+        <v>0.002739788032784483</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1142,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
         <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.4470076666666666</v>
+        <v>0.303044</v>
       </c>
       <c r="H12">
-        <v>1.341023</v>
+        <v>0.9091320000000001</v>
       </c>
       <c r="I12">
-        <v>0.01211098972683725</v>
+        <v>0.0102776553707253</v>
       </c>
       <c r="J12">
-        <v>0.01242323745145536</v>
+        <v>0.01040200057377754</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1178,28 +1175,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.06332366666666667</v>
+        <v>0.1364296666666667</v>
       </c>
       <c r="N12">
-        <v>0.189971</v>
+        <v>0.409289</v>
       </c>
       <c r="O12">
-        <v>0.0006655685421611174</v>
+        <v>0.00163373344931995</v>
       </c>
       <c r="P12">
-        <v>0.000681299273660687</v>
+        <v>0.00165397621699319</v>
       </c>
       <c r="Q12">
-        <v>0.02830616448144444</v>
+        <v>0.04134419190533334</v>
       </c>
       <c r="R12">
-        <v>0.254755480333</v>
+        <v>0.372097727148</v>
       </c>
       <c r="S12">
-        <v>8.060693776619335E-06</v>
+        <v>1.679094935973676E-05</v>
       </c>
       <c r="T12">
-        <v>8.463942652190782E-06</v>
+        <v>1.720466155817757E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1204,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
         <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.4470076666666666</v>
+        <v>0.303044</v>
       </c>
       <c r="H13">
-        <v>1.341023</v>
+        <v>0.9091320000000001</v>
       </c>
       <c r="I13">
-        <v>0.01211098972683725</v>
+        <v>0.0102776553707253</v>
       </c>
       <c r="J13">
-        <v>0.01242323745145536</v>
+        <v>0.01040200057377754</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1240,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.590305000000001</v>
+        <v>3.0661225</v>
       </c>
       <c r="N13">
-        <v>13.18061</v>
+        <v>6.132245</v>
       </c>
       <c r="O13">
-        <v>0.06926793602045243</v>
+        <v>0.03671655154154527</v>
       </c>
       <c r="P13">
-        <v>0.04727005711084738</v>
+        <v>0.02478099188293701</v>
       </c>
       <c r="Q13">
-        <v>2.945916860671667</v>
+        <v>0.9291700268900002</v>
       </c>
       <c r="R13">
-        <v>17.67550116403</v>
+        <v>5.57502016134</v>
       </c>
       <c r="S13">
-        <v>0.0008389032615429191</v>
+        <v>0.0003773600631454753</v>
       </c>
       <c r="T13">
-        <v>0.000587247143831913</v>
+        <v>0.0002577718917850874</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1266,10 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
         <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.7830505</v>
+        <v>1.057414</v>
       </c>
       <c r="H14">
-        <v>5.566101</v>
+        <v>2.114828</v>
       </c>
       <c r="I14">
-        <v>0.07540250095957175</v>
+        <v>0.03586191007305911</v>
       </c>
       <c r="J14">
-        <v>0.05156436123898184</v>
+        <v>0.02419719256328104</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>66.76259466666666</v>
+        <v>58.57936466666666</v>
       </c>
       <c r="N14">
-        <v>200.287784</v>
+        <v>175.738094</v>
       </c>
       <c r="O14">
-        <v>0.7017136742427041</v>
+        <v>0.7014828213988979</v>
       </c>
       <c r="P14">
-        <v>0.7182986969711617</v>
+        <v>0.710174541450451</v>
       </c>
       <c r="Q14">
-        <v>185.803672468364</v>
+        <v>61.94264030963867</v>
       </c>
       <c r="R14">
-        <v>1114.822034810184</v>
+        <v>371.655841857832</v>
       </c>
       <c r="S14">
-        <v>0.05291096599543012</v>
+        <v>0.02515651385880307</v>
       </c>
       <c r="T14">
-        <v>0.03703861348811093</v>
+        <v>0.01718423013301637</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1328,10 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
         <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.7830505</v>
+        <v>1.057414</v>
       </c>
       <c r="H15">
-        <v>5.566101</v>
+        <v>2.114828</v>
       </c>
       <c r="I15">
-        <v>0.07540250095957175</v>
+        <v>0.03586191007305911</v>
       </c>
       <c r="J15">
-        <v>0.05156436123898184</v>
+        <v>0.02419719256328104</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>21.72599366666667</v>
+        <v>21.72599366666666</v>
       </c>
       <c r="N15">
-        <v>65.177981</v>
+        <v>65.17798099999999</v>
       </c>
       <c r="O15">
-        <v>0.2283528211946824</v>
+        <v>0.2601668936102366</v>
       </c>
       <c r="P15">
-        <v>0.2337499466443302</v>
+        <v>0.2633904904496188</v>
       </c>
       <c r="Q15">
-        <v>60.4645375370135</v>
+        <v>22.97336986704467</v>
       </c>
       <c r="R15">
-        <v>362.787225222081</v>
+        <v>137.840219202268</v>
       </c>
       <c r="S15">
-        <v>0.01721837381925296</v>
+        <v>0.009330081742637443</v>
       </c>
       <c r="T15">
-        <v>0.01205316668836097</v>
+        <v>0.006373310416746459</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
         <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1408,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.7830505</v>
+        <v>1.057414</v>
       </c>
       <c r="H16">
-        <v>5.566101</v>
+        <v>2.114828</v>
       </c>
       <c r="I16">
-        <v>0.07540250095957175</v>
+        <v>0.03586191007305911</v>
       </c>
       <c r="J16">
-        <v>0.05156436123898184</v>
+        <v>0.02419719256328104</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,28 +1423,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.06332366666666667</v>
+        <v>0.1364296666666667</v>
       </c>
       <c r="N16">
-        <v>0.189971</v>
+        <v>0.409289</v>
       </c>
       <c r="O16">
-        <v>0.0006655685421611174</v>
+        <v>0.00163373344931995</v>
       </c>
       <c r="P16">
-        <v>0.000681299273660687</v>
+        <v>0.00165397621699319</v>
       </c>
       <c r="Q16">
-        <v>0.1762329621785</v>
+        <v>0.1442626395486667</v>
       </c>
       <c r="R16">
-        <v>1.057397773071</v>
+        <v>0.865575837292</v>
       </c>
       <c r="S16">
-        <v>5.018553263896442E-05</v>
+        <v>5.858880204286072E-05</v>
       </c>
       <c r="T16">
-        <v>3.513076185889561E-05</v>
+        <v>4.002158101767132E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1452,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
         <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -1470,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.7830505</v>
+        <v>1.057414</v>
       </c>
       <c r="H17">
-        <v>5.566101</v>
+        <v>2.114828</v>
       </c>
       <c r="I17">
-        <v>0.07540250095957175</v>
+        <v>0.03586191007305911</v>
       </c>
       <c r="J17">
-        <v>0.05156436123898184</v>
+        <v>0.02419719256328104</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1488,276 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.590305000000001</v>
+        <v>3.0661225</v>
       </c>
       <c r="N17">
-        <v>13.18061</v>
+        <v>6.132245</v>
       </c>
       <c r="O17">
-        <v>0.06926793602045243</v>
+        <v>0.03671655154154527</v>
       </c>
       <c r="P17">
-        <v>0.04727005711084738</v>
+        <v>0.02478099188293701</v>
       </c>
       <c r="Q17">
-        <v>18.3411516254025</v>
+        <v>3.242160857215</v>
       </c>
       <c r="R17">
-        <v>73.36460650161</v>
+        <v>12.96864342886</v>
       </c>
       <c r="S17">
-        <v>0.005222975612249719</v>
+        <v>0.001316725669575737</v>
       </c>
       <c r="T17">
-        <v>0.002437450300651036</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G18">
-        <v>0.05292733333333333</v>
-      </c>
-      <c r="H18">
-        <v>0.158782</v>
-      </c>
-      <c r="I18">
-        <v>0.001433985226805709</v>
-      </c>
-      <c r="J18">
-        <v>0.001470956492928895</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>66.76259466666666</v>
-      </c>
-      <c r="N18">
-        <v>200.287784</v>
-      </c>
-      <c r="O18">
-        <v>0.7017136742427041</v>
-      </c>
-      <c r="P18">
-        <v>0.7182986969711617</v>
-      </c>
-      <c r="Q18">
-        <v>3.533566102120889</v>
-      </c>
-      <c r="R18">
-        <v>31.802094919088</v>
-      </c>
-      <c r="S18">
-        <v>0.001006247042311591</v>
-      </c>
-      <c r="T18">
-        <v>0.001056586132172095</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G19">
-        <v>0.05292733333333333</v>
-      </c>
-      <c r="H19">
-        <v>0.158782</v>
-      </c>
-      <c r="I19">
-        <v>0.001433985226805709</v>
-      </c>
-      <c r="J19">
-        <v>0.001470956492928895</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>21.72599366666667</v>
-      </c>
-      <c r="N19">
-        <v>65.177981</v>
-      </c>
-      <c r="O19">
-        <v>0.2283528211946824</v>
-      </c>
-      <c r="P19">
-        <v>0.2337499466443302</v>
-      </c>
-      <c r="Q19">
-        <v>1.149898908793556</v>
-      </c>
-      <c r="R19">
-        <v>10.349090179142</v>
-      </c>
-      <c r="S19">
-        <v>0.00032745457209258</v>
-      </c>
-      <c r="T19">
-        <v>0.0003438360017382603</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.05292733333333333</v>
-      </c>
-      <c r="H20">
-        <v>0.158782</v>
-      </c>
-      <c r="I20">
-        <v>0.001433985226805709</v>
-      </c>
-      <c r="J20">
-        <v>0.001470956492928895</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M20">
-        <v>0.06332366666666667</v>
-      </c>
-      <c r="N20">
-        <v>0.189971</v>
-      </c>
-      <c r="O20">
-        <v>0.0006655685421611174</v>
-      </c>
-      <c r="P20">
-        <v>0.000681299273660687</v>
-      </c>
-      <c r="Q20">
-        <v>0.003351552813555556</v>
-      </c>
-      <c r="R20">
-        <v>0.030163975322</v>
-      </c>
-      <c r="S20">
-        <v>9.544154568856548E-07</v>
-      </c>
-      <c r="T20">
-        <v>1.002161590218927E-06</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.05292733333333333</v>
-      </c>
-      <c r="H21">
-        <v>0.158782</v>
-      </c>
-      <c r="I21">
-        <v>0.001433985226805709</v>
-      </c>
-      <c r="J21">
-        <v>0.001470956492928895</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>6.590305000000001</v>
-      </c>
-      <c r="N21">
-        <v>13.18061</v>
-      </c>
-      <c r="O21">
-        <v>0.06926793602045243</v>
-      </c>
-      <c r="P21">
-        <v>0.04727005711084738</v>
-      </c>
-      <c r="Q21">
-        <v>0.3488072695033334</v>
-      </c>
-      <c r="R21">
-        <v>2.09284361702</v>
-      </c>
-      <c r="S21">
-        <v>9.93291969446518E-05</v>
-      </c>
-      <c r="T21">
-        <v>6.953219742832064E-05</v>
+        <v>0.0005996304325005311</v>
       </c>
     </row>
   </sheetData>
